--- a/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_100.xlsx
+++ b/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_100.xlsx
@@ -53,51 +53,54 @@
     <t>Assignments submitted</t>
   </si>
   <si>
+    <t>Number of days</t>
+  </si>
+  <si>
+    <t>On/off campus click ratio</t>
+  </si>
+  <si>
+    <t>Days with no interaction</t>
+  </si>
+  <si>
+    <t>Submissions (% of course total)</t>
+  </si>
+  <si>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
+    <t>Quizzes started</t>
+  </si>
+  <si>
     <t>Largest period of inactivity (h)</t>
   </si>
   <si>
-    <t>Submissions (% of course total)</t>
-  </si>
-  <si>
-    <t>Number of days</t>
-  </si>
-  <si>
-    <t>On/off campus click ratio</t>
-  </si>
-  <si>
-    <t>Quizzes started</t>
-  </si>
-  <si>
-    <t>Assignments viewed</t>
-  </si>
-  <si>
     <t>Resources viewed</t>
   </si>
   <si>
-    <t>Days with no interaction</t>
+    <t>Start of Session 10 (%)</t>
   </si>
   <si>
     <t>Clicks on campus</t>
   </si>
   <si>
+    <t>Clicks on folder</t>
+  </si>
+  <si>
+    <t>Clicks (% of course total)</t>
+  </si>
+  <si>
+    <t>Start of Session 1 (%)</t>
+  </si>
+  <si>
     <t>Total time online (min)</t>
   </si>
   <si>
-    <t>Start of Session 1 (%)</t>
-  </si>
-  <si>
-    <t>Clicks (% of course total)</t>
+    <t>Discussions viewed</t>
   </si>
   <si>
     <t>Days with no interaction (%)</t>
   </si>
   <si>
-    <t>Clicks on folder</t>
-  </si>
-  <si>
-    <t>Discussions viewed</t>
-  </si>
-  <si>
     <t>Clicks per session</t>
   </si>
   <si>
@@ -110,16 +113,16 @@
     <t>Clicks on forum</t>
   </si>
   <si>
-    <t>Start of Session 10 (%)</t>
+    <t>Start of Session 3 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 2 (%)</t>
   </si>
   <si>
     <t>Average session duration (min)</t>
   </si>
   <si>
-    <t>Start of Session 2 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 3 (%)</t>
+    <t>Clicks on course</t>
   </si>
   <si>
     <t>Start of Session 9 (%)</t>
@@ -128,31 +131,28 @@
     <t>Start of Session 8 (%)</t>
   </si>
   <si>
-    <t>Clicks on course</t>
-  </si>
-  <si>
     <t>Clicks per day</t>
   </si>
   <si>
+    <t>Start of Session 4 (%)</t>
+  </si>
+  <si>
     <t>Links viewed</t>
   </si>
   <si>
+    <t>Start of Session 7 (%)</t>
+  </si>
+  <si>
+    <t>Forum posts</t>
+  </si>
+  <si>
+    <t>Files downloaded</t>
+  </si>
+  <si>
+    <t>Start of Session 6 (%)</t>
+  </si>
+  <si>
     <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 6 (%)</t>
-  </si>
-  <si>
-    <t>Forum posts</t>
-  </si>
-  <si>
-    <t>Start of Session 7 (%)</t>
-  </si>
-  <si>
-    <t>Files downloaded</t>
   </si>
 </sst>
 </file>
@@ -655,22 +655,22 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
       </c>
       <c r="I5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>6</v>
@@ -719,22 +719,22 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
       <c r="I7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -754,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -844,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -876,7 +876,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -908,7 +908,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
@@ -1001,22 +1001,22 @@
         <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
@@ -1025,7 +1025,7 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1036,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1097,28 +1097,28 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>4</v>
@@ -1129,28 +1129,28 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -1225,13 +1225,13 @@
         <v>31</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -1263,13 +1263,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -1289,10 +1289,10 @@
         <v>33</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -1327,13 +1327,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1481,7 +1481,7 @@
         <v>39</v>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>2</v>
@@ -1534,10 +1534,10 @@
         <v>1</v>
       </c>
       <c r="I32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1779,7 +1779,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1788,13 +1788,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1820,13 +1820,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -1843,10 +1843,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -1870,12 +1870,12 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1890,30 +1890,30 @@
         <v>0</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
       </c>
       <c r="I6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -1939,13 +1939,13 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -1971,13 +1971,13 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -2003,13 +2003,13 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -2018,16 +2018,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>5</v>
@@ -2035,13 +2035,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -2067,13 +2067,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -2099,13 +2099,13 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -2158,12 +2158,12 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
@@ -2227,13 +2227,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -2245,13 +2245,13 @@
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>4</v>
@@ -2259,13 +2259,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -2274,16 +2274,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -2291,13 +2291,13 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -2309,13 +2309,13 @@
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>4</v>
@@ -2323,10 +2323,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -2355,10 +2355,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -2370,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -2419,10 +2419,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -2446,12 +2446,12 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -2498,16 +2498,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_100.xlsx
+++ b/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_100.xlsx
@@ -53,106 +53,106 @@
     <t>Assignments submitted</t>
   </si>
   <si>
+    <t>Days with no interaction</t>
+  </si>
+  <si>
+    <t>Largest period of inactivity (h)</t>
+  </si>
+  <si>
+    <t>Submissions (% of course total)</t>
+  </si>
+  <si>
     <t>Number of days</t>
   </si>
   <si>
     <t>On/off campus click ratio</t>
   </si>
   <si>
-    <t>Days with no interaction</t>
-  </si>
-  <si>
-    <t>Submissions (% of course total)</t>
+    <t>Quizzes started</t>
   </si>
   <si>
     <t>Assignments viewed</t>
   </si>
   <si>
-    <t>Quizzes started</t>
-  </si>
-  <si>
-    <t>Largest period of inactivity (h)</t>
-  </si>
-  <si>
     <t>Resources viewed</t>
   </si>
   <si>
+    <t>Days with no interaction (%)</t>
+  </si>
+  <si>
+    <t>Clicks (% of course total)</t>
+  </si>
+  <si>
+    <t>Discussions viewed</t>
+  </si>
+  <si>
+    <t>Clicks on folder</t>
+  </si>
+  <si>
+    <t>Clicks on forum</t>
+  </si>
+  <si>
+    <t>Number of clicks</t>
+  </si>
+  <si>
     <t>Start of Session 10 (%)</t>
   </si>
   <si>
+    <t>Start of Session 2 (%)</t>
+  </si>
+  <si>
     <t>Clicks on campus</t>
   </si>
   <si>
-    <t>Clicks on folder</t>
-  </si>
-  <si>
-    <t>Clicks (% of course total)</t>
+    <t>Total time online (min)</t>
+  </si>
+  <si>
+    <t>Average session duration (min)</t>
+  </si>
+  <si>
+    <t>Start of Session 3 (%)</t>
   </si>
   <si>
     <t>Start of Session 1 (%)</t>
   </si>
   <si>
-    <t>Total time online (min)</t>
-  </si>
-  <si>
-    <t>Discussions viewed</t>
-  </si>
-  <si>
-    <t>Days with no interaction (%)</t>
+    <t>Number of sessions</t>
+  </si>
+  <si>
+    <t>Start of Session 8 (%)</t>
+  </si>
+  <si>
+    <t>Clicks on course</t>
   </si>
   <si>
     <t>Clicks per session</t>
   </si>
   <si>
-    <t>Number of clicks</t>
-  </si>
-  <si>
-    <t>Number of sessions</t>
-  </si>
-  <si>
-    <t>Clicks on forum</t>
-  </si>
-  <si>
-    <t>Start of Session 3 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 2 (%)</t>
-  </si>
-  <si>
-    <t>Average session duration (min)</t>
-  </si>
-  <si>
-    <t>Clicks on course</t>
+    <t>Clicks per day</t>
+  </si>
+  <si>
+    <t>Links viewed</t>
   </si>
   <si>
     <t>Start of Session 9 (%)</t>
   </si>
   <si>
-    <t>Start of Session 8 (%)</t>
-  </si>
-  <si>
-    <t>Clicks per day</t>
-  </si>
-  <si>
     <t>Start of Session 4 (%)</t>
   </si>
   <si>
-    <t>Links viewed</t>
+    <t>Start of Session 6 (%)</t>
   </si>
   <si>
     <t>Start of Session 7 (%)</t>
   </si>
   <si>
+    <t>Files downloaded</t>
+  </si>
+  <si>
+    <t>Start of Session 5 (%)</t>
+  </si>
+  <si>
     <t>Forum posts</t>
-  </si>
-  <si>
-    <t>Files downloaded</t>
-  </si>
-  <si>
-    <t>Start of Session 6 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 5 (%)</t>
   </si>
 </sst>
 </file>
@@ -588,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -609,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -687,22 +687,22 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
       </c>
       <c r="I6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>6</v>
@@ -719,22 +719,22 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -844,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -873,13 +873,13 @@
         <v>20</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -920,13 +920,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -937,13 +937,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -975,22 +975,22 @@
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -1001,22 +1001,22 @@
         <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
@@ -1033,13 +1033,13 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -1089,7 +1089,7 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1097,13 +1097,13 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1129,7 +1129,7 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -1144,16 +1144,16 @@
         <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1161,13 +1161,13 @@
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1185,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -1217,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1228,16 +1228,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -1249,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1257,10 +1257,10 @@
         <v>32</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1281,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1292,10 +1292,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1324,10 +1324,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -1377,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1385,10 +1385,10 @@
         <v>36</v>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -1397,19 +1397,19 @@
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
       </c>
       <c r="I28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1417,10 +1417,10 @@
         <v>37</v>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -1429,19 +1429,19 @@
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
       <c r="I29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <v>3</v>
@@ -1481,7 +1481,7 @@
         <v>39</v>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="b">
         <v>1</v>
       </c>
       <c r="I31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>2</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1779,7 +1779,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1788,13 +1788,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1852,13 +1852,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1971,10 +1971,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -2035,7 +2035,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -2067,13 +2067,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -2131,13 +2131,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -2158,18 +2158,18 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -2190,18 +2190,18 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -2222,18 +2222,18 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -2254,18 +2254,18 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -2277,13 +2277,13 @@
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -2291,13 +2291,13 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -2309,13 +2309,13 @@
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>4</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -2355,10 +2355,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -2370,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -2387,10 +2387,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -2419,13 +2419,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -2434,24 +2434,24 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -2478,18 +2478,18 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -2498,24 +2498,24 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B37" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_100.xlsx
+++ b/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_100.xlsx
@@ -53,106 +53,106 @@
     <t>Assignments submitted</t>
   </si>
   <si>
+    <t>Quizzes started</t>
+  </si>
+  <si>
+    <t>Number of days</t>
+  </si>
+  <si>
+    <t>Clicks on forum</t>
+  </si>
+  <si>
+    <t>Average session duration (min)</t>
+  </si>
+  <si>
     <t>Days with no interaction</t>
   </si>
   <si>
+    <t>On/off campus click ratio</t>
+  </si>
+  <si>
+    <t>Submissions (% of course total)</t>
+  </si>
+  <si>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
+    <t>Resources viewed</t>
+  </si>
+  <si>
     <t>Largest period of inactivity (h)</t>
   </si>
   <si>
-    <t>Submissions (% of course total)</t>
-  </si>
-  <si>
-    <t>Number of days</t>
-  </si>
-  <si>
-    <t>On/off campus click ratio</t>
-  </si>
-  <si>
-    <t>Quizzes started</t>
-  </si>
-  <si>
-    <t>Assignments viewed</t>
-  </si>
-  <si>
-    <t>Resources viewed</t>
+    <t>Start of Session 10 (%)</t>
+  </si>
+  <si>
+    <t>Clicks on campus</t>
+  </si>
+  <si>
+    <t>Start of Session 3 (%)</t>
   </si>
   <si>
     <t>Days with no interaction (%)</t>
   </si>
   <si>
+    <t>Start of Session 1 (%)</t>
+  </si>
+  <si>
+    <t>Total time online (min)</t>
+  </si>
+  <si>
     <t>Clicks (% of course total)</t>
   </si>
   <si>
+    <t>Clicks per day</t>
+  </si>
+  <si>
     <t>Discussions viewed</t>
   </si>
   <si>
+    <t>Clicks per session</t>
+  </si>
+  <si>
+    <t>Number of clicks</t>
+  </si>
+  <si>
     <t>Clicks on folder</t>
   </si>
   <si>
-    <t>Clicks on forum</t>
-  </si>
-  <si>
-    <t>Number of clicks</t>
-  </si>
-  <si>
-    <t>Start of Session 10 (%)</t>
+    <t>Number of sessions</t>
+  </si>
+  <si>
+    <t>Start of Session 8 (%)</t>
   </si>
   <si>
     <t>Start of Session 2 (%)</t>
   </si>
   <si>
-    <t>Clicks on campus</t>
-  </si>
-  <si>
-    <t>Total time online (min)</t>
-  </si>
-  <si>
-    <t>Average session duration (min)</t>
-  </si>
-  <si>
-    <t>Start of Session 3 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 1 (%)</t>
-  </si>
-  <si>
-    <t>Number of sessions</t>
-  </si>
-  <si>
-    <t>Start of Session 8 (%)</t>
-  </si>
-  <si>
     <t>Clicks on course</t>
   </si>
   <si>
-    <t>Clicks per session</t>
-  </si>
-  <si>
-    <t>Clicks per day</t>
+    <t>Start of Session 9 (%)</t>
   </si>
   <si>
     <t>Links viewed</t>
   </si>
   <si>
-    <t>Start of Session 9 (%)</t>
+    <t>Forum posts</t>
+  </si>
+  <si>
+    <t>Files downloaded</t>
+  </si>
+  <si>
+    <t>Start of Session 7 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 6 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 5 (%)</t>
   </si>
   <si>
     <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 6 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 7 (%)</t>
-  </si>
-  <si>
-    <t>Files downloaded</t>
-  </si>
-  <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
-    <t>Forum posts</t>
   </si>
 </sst>
 </file>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -690,19 +690,19 @@
         <v>1</v>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
       </c>
       <c r="I6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>6</v>
@@ -719,13 +719,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -815,22 +815,22 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>6</v>
@@ -873,19 +873,19 @@
         <v>20</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -897,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -911,7 +911,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -920,16 +920,16 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -937,13 +937,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -969,7 +969,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -1007,13 +1007,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
@@ -1129,13 +1129,13 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>5</v>
@@ -1173,19 +1173,19 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -1217,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1225,7 +1225,7 @@
         <v>31</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -1240,16 +1240,16 @@
         <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1257,22 +1257,22 @@
         <v>32</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1281,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1292,10 +1292,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1324,10 +1324,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>36</v>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
@@ -1397,16 +1397,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
       </c>
       <c r="I28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
         <v>4</v>
@@ -1417,10 +1417,10 @@
         <v>37</v>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -1429,19 +1429,19 @@
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
       <c r="I29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="b">
         <v>1</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="b">
         <v>1</v>
@@ -1505,7 +1505,7 @@
         <v>1</v>
       </c>
       <c r="J31">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1779,7 +1779,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1788,13 +1788,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1852,13 +1852,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1948,22 +1948,22 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>5</v>
@@ -1971,10 +1971,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -2003,16 +2003,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -2021,13 +2021,13 @@
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>5</v>
@@ -2035,7 +2035,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -2067,10 +2067,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2131,13 +2131,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -2158,18 +2158,18 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -2190,12 +2190,12 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2210,30 +2210,30 @@
         <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -2254,18 +2254,18 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -2277,13 +2277,13 @@
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -2291,13 +2291,13 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -2309,13 +2309,13 @@
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>4</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -2419,13 +2419,13 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -2434,16 +2434,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>4</v>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -2478,18 +2478,18 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -2510,12 +2510,12 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B37" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_100.xlsx
+++ b/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_100.xlsx
@@ -53,85 +53,85 @@
     <t>Assignments submitted</t>
   </si>
   <si>
+    <t>Submissions (% of course total)</t>
+  </si>
+  <si>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
+    <t>Days with no interaction</t>
+  </si>
+  <si>
     <t>Quizzes started</t>
   </si>
   <si>
+    <t>On/off campus click ratio</t>
+  </si>
+  <si>
     <t>Number of days</t>
   </si>
   <si>
+    <t>Resources viewed</t>
+  </si>
+  <si>
+    <t>Largest period of inactivity (h)</t>
+  </si>
+  <si>
+    <t>Start of Session 3 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 1 (%)</t>
+  </si>
+  <si>
+    <t>Average session duration (min)</t>
+  </si>
+  <si>
+    <t>Total time online (min)</t>
+  </si>
+  <si>
+    <t>Clicks on campus</t>
+  </si>
+  <si>
+    <t>Clicks (% of course total)</t>
+  </si>
+  <si>
+    <t>Days with no interaction (%)</t>
+  </si>
+  <si>
+    <t>Clicks per session</t>
+  </si>
+  <si>
+    <t>Clicks per day</t>
+  </si>
+  <si>
+    <t>Discussions viewed</t>
+  </si>
+  <si>
+    <t>Number of clicks</t>
+  </si>
+  <si>
+    <t>Clicks on folder</t>
+  </si>
+  <si>
+    <t>Number of sessions</t>
+  </si>
+  <si>
     <t>Clicks on forum</t>
   </si>
   <si>
-    <t>Average session duration (min)</t>
-  </si>
-  <si>
-    <t>Days with no interaction</t>
-  </si>
-  <si>
-    <t>On/off campus click ratio</t>
-  </si>
-  <si>
-    <t>Submissions (% of course total)</t>
-  </si>
-  <si>
-    <t>Assignments viewed</t>
-  </si>
-  <si>
-    <t>Resources viewed</t>
-  </si>
-  <si>
-    <t>Largest period of inactivity (h)</t>
-  </si>
-  <si>
     <t>Start of Session 10 (%)</t>
   </si>
   <si>
-    <t>Clicks on campus</t>
-  </si>
-  <si>
-    <t>Start of Session 3 (%)</t>
-  </si>
-  <si>
-    <t>Days with no interaction (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 1 (%)</t>
-  </si>
-  <si>
-    <t>Total time online (min)</t>
-  </si>
-  <si>
-    <t>Clicks (% of course total)</t>
-  </si>
-  <si>
-    <t>Clicks per day</t>
-  </si>
-  <si>
-    <t>Discussions viewed</t>
-  </si>
-  <si>
-    <t>Clicks per session</t>
-  </si>
-  <si>
-    <t>Number of clicks</t>
-  </si>
-  <si>
-    <t>Clicks on folder</t>
-  </si>
-  <si>
-    <t>Number of sessions</t>
+    <t>Clicks on course</t>
+  </si>
+  <si>
+    <t>Start of Session 9 (%)</t>
   </si>
   <si>
     <t>Start of Session 8 (%)</t>
   </si>
   <si>
     <t>Start of Session 2 (%)</t>
-  </si>
-  <si>
-    <t>Clicks on course</t>
-  </si>
-  <si>
-    <t>Start of Session 9 (%)</t>
   </si>
   <si>
     <t>Links viewed</t>
@@ -623,22 +623,22 @@
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
       </c>
       <c r="I4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>6</v>
@@ -687,13 +687,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -719,10 +719,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -815,22 +815,22 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>6</v>
@@ -873,7 +873,7 @@
         <v>20</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -897,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -920,7 +920,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -937,13 +937,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -969,7 +969,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>24</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -1045,16 +1045,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -1065,22 +1065,22 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
@@ -1089,7 +1089,7 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1109,19 +1109,19 @@
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1135,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1161,28 +1161,28 @@
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -1228,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -1237,16 +1237,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>4</v>
@@ -1292,10 +1292,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1321,13 +1321,13 @@
         <v>34</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -1377,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1779,7 +1779,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1788,13 +1788,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1852,13 +1852,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -1875,22 +1875,22 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -1902,15 +1902,15 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1971,10 +1971,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -2035,13 +2035,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2108,13 +2108,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -2158,18 +2158,18 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -2190,12 +2190,12 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2210,24 +2210,24 @@
         <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
@@ -2259,13 +2259,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -2274,16 +2274,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -2291,10 +2291,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -2323,13 +2323,13 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -2338,16 +2338,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -2355,10 +2355,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -2370,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -2387,10 +2387,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -2419,10 +2419,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -2446,15 +2446,15 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -2466,16 +2466,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -2483,7 +2483,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_100.xlsx
+++ b/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_100.xlsx
@@ -53,106 +53,106 @@
     <t>Assignments submitted</t>
   </si>
   <si>
+    <t>Number of days</t>
+  </si>
+  <si>
+    <t>Largest period of inactivity (h)</t>
+  </si>
+  <si>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
+    <t>Quizzes started</t>
+  </si>
+  <si>
     <t>Submissions (% of course total)</t>
   </si>
   <si>
-    <t>Assignments viewed</t>
+    <t>On/off campus click ratio</t>
   </si>
   <si>
     <t>Days with no interaction</t>
   </si>
   <si>
-    <t>Quizzes started</t>
-  </si>
-  <si>
-    <t>On/off campus click ratio</t>
-  </si>
-  <si>
-    <t>Number of days</t>
-  </si>
-  <si>
     <t>Resources viewed</t>
   </si>
   <si>
-    <t>Largest period of inactivity (h)</t>
+    <t>Clicks on forum</t>
+  </si>
+  <si>
+    <t>Clicks (% of course total)</t>
+  </si>
+  <si>
+    <t>Start of Session 1 (%)</t>
+  </si>
+  <si>
+    <t>Average session duration (min)</t>
+  </si>
+  <si>
+    <t>Total time online (min)</t>
+  </si>
+  <si>
+    <t>Discussions viewed</t>
+  </si>
+  <si>
+    <t>Days with no interaction (%)</t>
+  </si>
+  <si>
+    <t>Clicks per session</t>
+  </si>
+  <si>
+    <t>Number of clicks</t>
+  </si>
+  <si>
+    <t>Number of sessions</t>
+  </si>
+  <si>
+    <t>Start of Session 10 (%)</t>
+  </si>
+  <si>
+    <t>Clicks on campus</t>
   </si>
   <si>
     <t>Start of Session 3 (%)</t>
   </si>
   <si>
-    <t>Start of Session 1 (%)</t>
-  </si>
-  <si>
-    <t>Average session duration (min)</t>
-  </si>
-  <si>
-    <t>Total time online (min)</t>
-  </si>
-  <si>
-    <t>Clicks on campus</t>
-  </si>
-  <si>
-    <t>Clicks (% of course total)</t>
-  </si>
-  <si>
-    <t>Days with no interaction (%)</t>
-  </si>
-  <si>
-    <t>Clicks per session</t>
+    <t>Clicks on folder</t>
   </si>
   <si>
     <t>Clicks per day</t>
   </si>
   <si>
-    <t>Discussions viewed</t>
-  </si>
-  <si>
-    <t>Number of clicks</t>
-  </si>
-  <si>
-    <t>Clicks on folder</t>
-  </si>
-  <si>
-    <t>Number of sessions</t>
-  </si>
-  <si>
-    <t>Clicks on forum</t>
-  </si>
-  <si>
-    <t>Start of Session 10 (%)</t>
+    <t>Start of Session 9 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 8 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 2 (%)</t>
   </si>
   <si>
     <t>Clicks on course</t>
   </si>
   <si>
-    <t>Start of Session 9 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 8 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 2 (%)</t>
-  </si>
-  <si>
     <t>Links viewed</t>
   </si>
   <si>
+    <t>Start of Session 5 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 4 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 6 (%)</t>
+  </si>
+  <si>
     <t>Forum posts</t>
   </si>
   <si>
+    <t>Start of Session 7 (%)</t>
+  </si>
+  <si>
     <t>Files downloaded</t>
-  </si>
-  <si>
-    <t>Start of Session 7 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 6 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 4 (%)</t>
   </si>
 </sst>
 </file>
@@ -588,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -609,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -623,22 +623,22 @@
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
       </c>
       <c r="I4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>6</v>
@@ -751,22 +751,22 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>6</v>
@@ -812,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -844,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -873,19 +873,19 @@
         <v>20</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -911,7 +911,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -926,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -937,22 +937,22 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
@@ -972,10 +972,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -1004,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -1033,10 +1033,10 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -1045,19 +1045,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1129,28 +1129,28 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -1193,13 +1193,13 @@
         <v>30</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         <v>31</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -1263,13 +1263,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1779,7 +1779,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1852,13 +1852,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -1875,13 +1875,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -1902,27 +1902,27 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -1934,12 +1934,12 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1954,27 +1954,27 @@
         <v>0</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -2035,7 +2035,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -2044,22 +2044,22 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>5</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -2099,16 +2099,16 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -2131,13 +2131,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2227,13 +2227,13 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -2259,13 +2259,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -2274,16 +2274,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -2291,10 +2291,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -2446,18 +2446,18 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -2466,24 +2466,24 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2498,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
@@ -2510,12 +2510,12 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" t="b">
         <v>0</v>
